--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3249.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3249.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.804822209841045</v>
+        <v>0.5800840258598328</v>
       </c>
       <c r="B1">
-        <v>2.290151768362403</v>
+        <v>0.3779819905757904</v>
       </c>
       <c r="C1">
-        <v>2.270654578729925</v>
+        <v>0.2940379679203033</v>
       </c>
       <c r="D1">
-        <v>2.796755635638931</v>
+        <v>0.2856670916080475</v>
       </c>
       <c r="E1">
-        <v>3.25068582487095</v>
+        <v>0.3092442154884338</v>
       </c>
     </row>
   </sheetData>
